--- a/biology/Zoologie/Arctosa_deserta/Arctosa_deserta.xlsx
+++ b/biology/Zoologie/Arctosa_deserta/Arctosa_deserta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arctosa deserta est une espèce d'araignées aranéomorphes de la famille des Lycosidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arctosa deserta est une espèce d'araignées aranéomorphes de la famille des Lycosidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce n'a pour le moment été observée qu'en Israël et en Syrie[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce n'a pour le moment été observée qu'en Israël et en Syrie.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>O. Pickard-Cambridge, 1872 : General list of the spiders of Palestine and Syria, with descriptions of numerous new species, and characters of two new genera. Proceedings of the Zoological Society of London, vol. 1871, p. 212-354 (texte intégral).</t>
         </is>
